--- a/data/pca/factorExposure/factorExposure_2011-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01696403985163984</v>
+        <v>-0.01491032962918284</v>
       </c>
       <c r="C2">
-        <v>-0.005642405427105815</v>
+        <v>-0.000474081508335619</v>
       </c>
       <c r="D2">
-        <v>0.05589344825953102</v>
+        <v>0.007592447420386552</v>
       </c>
       <c r="E2">
-        <v>0.02673874147992078</v>
+        <v>0.04310507947907365</v>
       </c>
       <c r="F2">
-        <v>-0.03822607189923147</v>
+        <v>-0.0009147197504535548</v>
       </c>
       <c r="G2">
-        <v>-0.006128736288754647</v>
+        <v>-0.02190126920961887</v>
       </c>
       <c r="H2">
-        <v>0.01683728390192432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03479254054639383</v>
+      </c>
+      <c r="I2">
+        <v>0.01264316791203459</v>
+      </c>
+      <c r="J2">
+        <v>-0.01320449158327311</v>
+      </c>
+      <c r="K2">
+        <v>-0.05170646506603464</v>
+      </c>
+      <c r="L2">
+        <v>-0.02100794754680817</v>
+      </c>
+      <c r="M2">
+        <v>0.002655341084466001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08186362739063302</v>
+        <v>-0.1099508008946529</v>
       </c>
       <c r="C4">
-        <v>0.0558697547731862</v>
+        <v>-0.07703337900534245</v>
       </c>
       <c r="D4">
-        <v>0.03116758505402016</v>
+        <v>0.01779963287436267</v>
       </c>
       <c r="E4">
-        <v>0.04529584002954049</v>
+        <v>0.05461993432667557</v>
       </c>
       <c r="F4">
-        <v>-0.01882650421830009</v>
+        <v>0.134540970887685</v>
       </c>
       <c r="G4">
-        <v>-0.01147539858401287</v>
+        <v>0.02587896096703008</v>
       </c>
       <c r="H4">
-        <v>0.007715492393138434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.02440763349458313</v>
+      </c>
+      <c r="I4">
+        <v>-0.02960950656690628</v>
+      </c>
+      <c r="J4">
+        <v>-0.03767888933943574</v>
+      </c>
+      <c r="K4">
+        <v>0.09448778429535154</v>
+      </c>
+      <c r="L4">
+        <v>-0.02827334265003701</v>
+      </c>
+      <c r="M4">
+        <v>0.04229843570172294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1291613030019601</v>
+        <v>-0.1335050538582903</v>
       </c>
       <c r="C6">
-        <v>0.03482554049514467</v>
+        <v>-0.05041348709963904</v>
       </c>
       <c r="D6">
-        <v>0.03653494263175429</v>
+        <v>-0.0001620891798934912</v>
       </c>
       <c r="E6">
-        <v>0.05784492851784664</v>
+        <v>-3.306037411176268e-05</v>
       </c>
       <c r="F6">
-        <v>0.1126038394573336</v>
+        <v>-0.01314432985240881</v>
       </c>
       <c r="G6">
-        <v>0.005895981582230834</v>
+        <v>0.1173846245310296</v>
       </c>
       <c r="H6">
-        <v>-0.2534536046785013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.01772917093666422</v>
+      </c>
+      <c r="I6">
+        <v>-0.4160669777759823</v>
+      </c>
+      <c r="J6">
+        <v>0.1717840843320636</v>
+      </c>
+      <c r="K6">
+        <v>0.1110171576699829</v>
+      </c>
+      <c r="L6">
+        <v>-0.1019581531018901</v>
+      </c>
+      <c r="M6">
+        <v>-0.005047194771295342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.0757178670079878</v>
+        <v>-0.07098353939094464</v>
       </c>
       <c r="C7">
-        <v>0.0557960709205898</v>
+        <v>-0.06679017527063126</v>
       </c>
       <c r="D7">
-        <v>0.05455801321556961</v>
+        <v>0.01193996185751634</v>
       </c>
       <c r="E7">
-        <v>0.04659879618262538</v>
+        <v>0.05854719579503267</v>
       </c>
       <c r="F7">
-        <v>0.03608282432533124</v>
+        <v>0.02348177358582588</v>
       </c>
       <c r="G7">
-        <v>-0.004235699685875598</v>
+        <v>0.01490351607142011</v>
       </c>
       <c r="H7">
-        <v>0.02160637518206735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01919406680128079</v>
+      </c>
+      <c r="I7">
+        <v>0.05964532653904252</v>
+      </c>
+      <c r="J7">
+        <v>-0.07085232955064773</v>
+      </c>
+      <c r="K7">
+        <v>0.06305495622530848</v>
+      </c>
+      <c r="L7">
+        <v>-0.02797966458420739</v>
+      </c>
+      <c r="M7">
+        <v>-0.04480401298729351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.0317667005106474</v>
+        <v>-0.04254710389416339</v>
       </c>
       <c r="C8">
-        <v>0.01175532079373288</v>
+        <v>-0.0118706620970002</v>
       </c>
       <c r="D8">
-        <v>0.0483387937352757</v>
+        <v>0.007366478674431873</v>
       </c>
       <c r="E8">
-        <v>0.05031156313884862</v>
+        <v>0.04692269262032007</v>
       </c>
       <c r="F8">
-        <v>-0.01435651591690537</v>
+        <v>0.1104452830189222</v>
       </c>
       <c r="G8">
-        <v>-0.05135460099732683</v>
+        <v>-0.003974447143756016</v>
       </c>
       <c r="H8">
-        <v>0.0171237505644037</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.0123900168236579</v>
+      </c>
+      <c r="I8">
+        <v>-0.03676606893402688</v>
+      </c>
+      <c r="J8">
+        <v>-0.02715076552745267</v>
+      </c>
+      <c r="K8">
+        <v>0.06630809499483689</v>
+      </c>
+      <c r="L8">
+        <v>-0.06252904010470323</v>
+      </c>
+      <c r="M8">
+        <v>0.05626621995344488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.08090461448834399</v>
+        <v>-0.08506698548392579</v>
       </c>
       <c r="C9">
-        <v>0.06368243149591324</v>
+        <v>-0.06963015054635116</v>
       </c>
       <c r="D9">
-        <v>0.03592322669923598</v>
+        <v>-0.001676314285180889</v>
       </c>
       <c r="E9">
-        <v>0.04357152190371728</v>
+        <v>0.03745963749019052</v>
       </c>
       <c r="F9">
-        <v>-0.02949781658489092</v>
+        <v>0.1293780064296988</v>
       </c>
       <c r="G9">
-        <v>-0.01296437201718721</v>
+        <v>0.03246309380813417</v>
       </c>
       <c r="H9">
-        <v>0.00193309681319788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.006954017893655973</v>
+      </c>
+      <c r="I9">
+        <v>-0.003277383378574755</v>
+      </c>
+      <c r="J9">
+        <v>-0.03396649308097168</v>
+      </c>
+      <c r="K9">
+        <v>0.05498115455779466</v>
+      </c>
+      <c r="L9">
+        <v>-0.03440757736315323</v>
+      </c>
+      <c r="M9">
+        <v>-0.01601447331736741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06117163320106752</v>
+        <v>-0.1131025086037545</v>
       </c>
       <c r="C10">
-        <v>-0.1400158073904974</v>
+        <v>0.163959854216863</v>
       </c>
       <c r="D10">
-        <v>0.07246289850902245</v>
+        <v>0.00900327617350637</v>
       </c>
       <c r="E10">
-        <v>0.04445284816077235</v>
+        <v>0.05047997163382928</v>
       </c>
       <c r="F10">
-        <v>0.03977744867717841</v>
+        <v>-0.01626852884811286</v>
       </c>
       <c r="G10">
-        <v>-0.004131267342574116</v>
+        <v>0.01993782987329661</v>
       </c>
       <c r="H10">
-        <v>-0.01524742379081797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.01304325431792327</v>
+      </c>
+      <c r="I10">
+        <v>0.02523645699100404</v>
+      </c>
+      <c r="J10">
+        <v>0.03372696992435231</v>
+      </c>
+      <c r="K10">
+        <v>-0.01786918105629285</v>
+      </c>
+      <c r="L10">
+        <v>0.03334611070687835</v>
+      </c>
+      <c r="M10">
+        <v>-0.1237761983733799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07394687011322869</v>
+        <v>-0.06915453303161842</v>
       </c>
       <c r="C11">
-        <v>0.08465491073285562</v>
+        <v>-0.07566328951982326</v>
       </c>
       <c r="D11">
-        <v>0.02722431504161697</v>
+        <v>-0.02811140688755864</v>
       </c>
       <c r="E11">
-        <v>0.006754508779004936</v>
+        <v>0.01316961498628272</v>
       </c>
       <c r="F11">
-        <v>-0.05461273297845147</v>
+        <v>0.117430089126355</v>
       </c>
       <c r="G11">
-        <v>-0.06839124706948052</v>
+        <v>0.02579453668366232</v>
       </c>
       <c r="H11">
-        <v>0.05080405434493176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.03734065499491065</v>
+      </c>
+      <c r="I11">
+        <v>0.07110042684619527</v>
+      </c>
+      <c r="J11">
+        <v>-0.03572393754031983</v>
+      </c>
+      <c r="K11">
+        <v>-0.05649106529769239</v>
+      </c>
+      <c r="L11">
+        <v>-0.03663879454625302</v>
+      </c>
+      <c r="M11">
+        <v>-0.1262547384409377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07279073004592411</v>
+        <v>-0.06974559468820712</v>
       </c>
       <c r="C12">
-        <v>0.05936860429520226</v>
+        <v>-0.06735614802268625</v>
       </c>
       <c r="D12">
-        <v>0.01831852024827385</v>
+        <v>-0.02834831400945235</v>
       </c>
       <c r="E12">
-        <v>0.03434353401513592</v>
+        <v>0.005188272142386992</v>
       </c>
       <c r="F12">
-        <v>-0.005224615764526304</v>
+        <v>0.122017341767021</v>
       </c>
       <c r="G12">
-        <v>-0.04948839107143378</v>
+        <v>0.02212983718990079</v>
       </c>
       <c r="H12">
-        <v>0.04794431517293721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.04267291100184407</v>
+      </c>
+      <c r="I12">
+        <v>0.04394339318866902</v>
+      </c>
+      <c r="J12">
+        <v>-0.06713546250339121</v>
+      </c>
+      <c r="K12">
+        <v>-0.03908106698005726</v>
+      </c>
+      <c r="L12">
+        <v>-0.05184524103761917</v>
+      </c>
+      <c r="M12">
+        <v>-0.1474052478908859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05880080249644611</v>
+        <v>-0.04500434773872572</v>
       </c>
       <c r="C13">
-        <v>0.01286996551194513</v>
+        <v>-0.03173052773332174</v>
       </c>
       <c r="D13">
-        <v>-0.001353324284667885</v>
+        <v>0.02194917306612746</v>
       </c>
       <c r="E13">
-        <v>0.02125238435556114</v>
+        <v>0.01283089567842148</v>
       </c>
       <c r="F13">
-        <v>-0.05147252397025483</v>
+        <v>0.04082624463832451</v>
       </c>
       <c r="G13">
-        <v>0.01609117582660024</v>
+        <v>-0.004529342187549476</v>
       </c>
       <c r="H13">
-        <v>-0.008357476156586515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.008269641582294122</v>
+      </c>
+      <c r="I13">
+        <v>0.001474186251804492</v>
+      </c>
+      <c r="J13">
+        <v>-0.0175689341107116</v>
+      </c>
+      <c r="K13">
+        <v>0.04094146708960553</v>
+      </c>
+      <c r="L13">
+        <v>0.0118221353492284</v>
+      </c>
+      <c r="M13">
+        <v>0.02158875963674511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05302188873986294</v>
+        <v>-0.04078375461234025</v>
       </c>
       <c r="C14">
-        <v>0.02124368093838452</v>
+        <v>-0.02992879681923103</v>
       </c>
       <c r="D14">
-        <v>0.02306769578394095</v>
+        <v>-0.01399691352102386</v>
       </c>
       <c r="E14">
-        <v>0.02450689385593701</v>
+        <v>0.01938419863567644</v>
       </c>
       <c r="F14">
-        <v>0.01600147175952237</v>
+        <v>0.06485250596994385</v>
       </c>
       <c r="G14">
-        <v>-0.01856161802853066</v>
+        <v>-0.006249453343291</v>
       </c>
       <c r="H14">
-        <v>-0.0697086110904486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03286519646255234</v>
+      </c>
+      <c r="I14">
+        <v>-0.001023924521550351</v>
+      </c>
+      <c r="J14">
+        <v>-0.003005884959869799</v>
+      </c>
+      <c r="K14">
+        <v>0.101048031745094</v>
+      </c>
+      <c r="L14">
+        <v>-0.01857851090288196</v>
+      </c>
+      <c r="M14">
+        <v>-0.0004715993345111386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03737582365564852</v>
+        <v>-0.02556547109395018</v>
       </c>
       <c r="C15">
-        <v>-0.00510205112274536</v>
+        <v>-0.009817843889158941</v>
       </c>
       <c r="D15">
-        <v>-0.005225977861763923</v>
+        <v>0.05574743506359655</v>
       </c>
       <c r="E15">
-        <v>0.02273693092717788</v>
+        <v>0.003709541174367074</v>
       </c>
       <c r="F15">
-        <v>-0.004691999559740446</v>
+        <v>-0.001742114853451853</v>
       </c>
       <c r="G15">
-        <v>0.01095121906648925</v>
+        <v>0.03861371675511522</v>
       </c>
       <c r="H15">
-        <v>-0.01135915217429955</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.02919623923766586</v>
+      </c>
+      <c r="I15">
+        <v>-0.004115352737594945</v>
+      </c>
+      <c r="J15">
+        <v>-0.004394864471299455</v>
+      </c>
+      <c r="K15">
+        <v>0.07886635695884328</v>
+      </c>
+      <c r="L15">
+        <v>0.004623676969608625</v>
+      </c>
+      <c r="M15">
+        <v>-0.01343018977139726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06478127819381979</v>
+        <v>-0.07271945877485925</v>
       </c>
       <c r="C16">
-        <v>0.08270954939099469</v>
+        <v>-0.08092916248378301</v>
       </c>
       <c r="D16">
-        <v>0.02482189596606383</v>
+        <v>-0.01815217142864058</v>
       </c>
       <c r="E16">
-        <v>0.03405876720838177</v>
+        <v>0.01425198225837642</v>
       </c>
       <c r="F16">
-        <v>-0.04739199277841333</v>
+        <v>0.1164815769845349</v>
       </c>
       <c r="G16">
-        <v>-0.04234679437039934</v>
+        <v>0.009814181465753535</v>
       </c>
       <c r="H16">
-        <v>0.04421028308688992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03521670941930335</v>
+      </c>
+      <c r="I16">
+        <v>0.05715366082528123</v>
+      </c>
+      <c r="J16">
+        <v>-0.05408718104016282</v>
+      </c>
+      <c r="K16">
+        <v>-0.03512618179540257</v>
+      </c>
+      <c r="L16">
+        <v>-0.05834274738774495</v>
+      </c>
+      <c r="M16">
+        <v>-0.129166664428822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04701698652984071</v>
+        <v>-0.04651352895732484</v>
       </c>
       <c r="C20">
-        <v>0.04649447054983111</v>
+        <v>-0.03246629498862204</v>
       </c>
       <c r="D20">
-        <v>0.01201871465410215</v>
+        <v>0.02514573290976133</v>
       </c>
       <c r="E20">
-        <v>0.02130729248701254</v>
+        <v>0.02026285380446046</v>
       </c>
       <c r="F20">
-        <v>-0.0248585693918746</v>
+        <v>0.06884212825768518</v>
       </c>
       <c r="G20">
-        <v>-0.0203795719409232</v>
+        <v>-0.007115667303718544</v>
       </c>
       <c r="H20">
-        <v>0.005186774807384589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01840529335678114</v>
+      </c>
+      <c r="I20">
+        <v>-0.0005871223159133979</v>
+      </c>
+      <c r="J20">
+        <v>-0.0251005066443372</v>
+      </c>
+      <c r="K20">
+        <v>0.06395727959443581</v>
+      </c>
+      <c r="L20">
+        <v>-0.04478921054299331</v>
+      </c>
+      <c r="M20">
+        <v>-0.02328970858726514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.0233253634752805</v>
+        <v>-0.02257148141832117</v>
       </c>
       <c r="C21">
-        <v>0.03664840930972332</v>
+        <v>-0.02371041708807069</v>
       </c>
       <c r="D21">
-        <v>0.001689024855126358</v>
+        <v>0.008535263239933992</v>
       </c>
       <c r="E21">
-        <v>0.05942600880745112</v>
+        <v>0.02729294550991172</v>
       </c>
       <c r="F21">
-        <v>0.07118035020805724</v>
+        <v>0.05170740350166563</v>
       </c>
       <c r="G21">
-        <v>-0.007200421719644075</v>
+        <v>0.1078837311884982</v>
       </c>
       <c r="H21">
-        <v>-0.01089841946824364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.07662467631546613</v>
+      </c>
+      <c r="I21">
+        <v>0.02401153198306184</v>
+      </c>
+      <c r="J21">
+        <v>-0.006704120818722902</v>
+      </c>
+      <c r="K21">
+        <v>0.08018141709856738</v>
+      </c>
+      <c r="L21">
+        <v>0.0265918656697914</v>
+      </c>
+      <c r="M21">
+        <v>-0.05231703507343309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01116371538241494</v>
+        <v>-0.04179052988337406</v>
       </c>
       <c r="C22">
-        <v>0.03194125841173203</v>
+        <v>-0.02280509761604167</v>
       </c>
       <c r="D22">
-        <v>-0.1065175416021316</v>
+        <v>0.6552509039880502</v>
       </c>
       <c r="E22">
-        <v>0.51159969655403</v>
+        <v>0.04057356849655692</v>
       </c>
       <c r="F22">
-        <v>-0.09889537332757338</v>
+        <v>-0.04402965393281378</v>
       </c>
       <c r="G22">
-        <v>0.2836045538392056</v>
+        <v>-0.1152348233568932</v>
       </c>
       <c r="H22">
-        <v>0.1799468171635336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1313428871495671</v>
+      </c>
+      <c r="I22">
+        <v>0.01323308775182331</v>
+      </c>
+      <c r="J22">
+        <v>0.04281606327008203</v>
+      </c>
+      <c r="K22">
+        <v>-0.02524667482737295</v>
+      </c>
+      <c r="L22">
+        <v>0.01054892363390532</v>
+      </c>
+      <c r="M22">
+        <v>-0.000165206309333654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.009978363700918683</v>
+        <v>-0.04201668603904635</v>
       </c>
       <c r="C23">
-        <v>0.03069491725969001</v>
+        <v>-0.02300223696642936</v>
       </c>
       <c r="D23">
-        <v>-0.1059398457491539</v>
+        <v>0.6567353458954465</v>
       </c>
       <c r="E23">
-        <v>0.5104228910249272</v>
+        <v>0.04107918430305624</v>
       </c>
       <c r="F23">
-        <v>-0.09795607366727577</v>
+        <v>-0.04122074020640776</v>
       </c>
       <c r="G23">
-        <v>0.2839432944998501</v>
+        <v>-0.115842460757677</v>
       </c>
       <c r="H23">
-        <v>0.1771785127114998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1294308351306452</v>
+      </c>
+      <c r="I23">
+        <v>0.009824248071528379</v>
+      </c>
+      <c r="J23">
+        <v>0.04411270237316862</v>
+      </c>
+      <c r="K23">
+        <v>-0.02683997854223646</v>
+      </c>
+      <c r="L23">
+        <v>0.008635709355808293</v>
+      </c>
+      <c r="M23">
+        <v>-0.0003982131034362251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07954209427476014</v>
+        <v>-0.07693068553421888</v>
       </c>
       <c r="C24">
-        <v>0.07455835822355589</v>
+        <v>-0.07820887059642793</v>
       </c>
       <c r="D24">
-        <v>0.02954380727170206</v>
+        <v>-0.01347391334160942</v>
       </c>
       <c r="E24">
-        <v>0.03796352678985069</v>
+        <v>0.0180915139633655</v>
       </c>
       <c r="F24">
-        <v>-0.03278984896430483</v>
+        <v>0.1159932468988724</v>
       </c>
       <c r="G24">
-        <v>-0.04957558719630049</v>
+        <v>0.02083298728394533</v>
       </c>
       <c r="H24">
-        <v>0.03263728424056266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.03365509091622357</v>
+      </c>
+      <c r="I24">
+        <v>0.05082002174557466</v>
+      </c>
+      <c r="J24">
+        <v>-0.03641489306329231</v>
+      </c>
+      <c r="K24">
+        <v>-0.05198367310117827</v>
+      </c>
+      <c r="L24">
+        <v>-0.04743595552807594</v>
+      </c>
+      <c r="M24">
+        <v>-0.1160059945885182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.0703139602218915</v>
+        <v>-0.0734430259800036</v>
       </c>
       <c r="C25">
-        <v>0.04286669514848863</v>
+        <v>-0.05398562540733978</v>
       </c>
       <c r="D25">
-        <v>0.02791390005644691</v>
+        <v>-0.03182567916166414</v>
       </c>
       <c r="E25">
-        <v>0.04347174219307453</v>
+        <v>0.01450186804385552</v>
       </c>
       <c r="F25">
-        <v>-0.04541049057794404</v>
+        <v>0.1233866064369559</v>
       </c>
       <c r="G25">
-        <v>-0.05940957852669763</v>
+        <v>0.008765336718893187</v>
       </c>
       <c r="H25">
-        <v>0.005020488791964592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.02493689586060245</v>
+      </c>
+      <c r="I25">
+        <v>0.0515366943328078</v>
+      </c>
+      <c r="J25">
+        <v>-0.02675041569027806</v>
+      </c>
+      <c r="K25">
+        <v>-0.06160009250229519</v>
+      </c>
+      <c r="L25">
+        <v>-0.06692326989284658</v>
+      </c>
+      <c r="M25">
+        <v>-0.1234221669215572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04571059322262065</v>
+        <v>-0.04304600053674305</v>
       </c>
       <c r="C26">
-        <v>0.03918034985393114</v>
+        <v>-0.01879782325811269</v>
       </c>
       <c r="D26">
-        <v>0.03853904623529469</v>
+        <v>0.01332114269633171</v>
       </c>
       <c r="E26">
-        <v>0.003078002597985766</v>
+        <v>0.002043728736028301</v>
       </c>
       <c r="F26">
-        <v>-0.006573315792823733</v>
+        <v>0.03925677529607875</v>
       </c>
       <c r="G26">
-        <v>0.02237878189647893</v>
+        <v>0.002629249455158147</v>
       </c>
       <c r="H26">
-        <v>0.01094540805418699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01028662267217717</v>
+      </c>
+      <c r="I26">
+        <v>0.02156965254624205</v>
+      </c>
+      <c r="J26">
+        <v>-0.02139981898621552</v>
+      </c>
+      <c r="K26">
+        <v>0.1307269123212525</v>
+      </c>
+      <c r="L26">
+        <v>0.02925669742019217</v>
+      </c>
+      <c r="M26">
+        <v>-0.03618177104291669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1025824932027801</v>
+        <v>-0.1458183509243816</v>
       </c>
       <c r="C28">
-        <v>-0.2932790025121462</v>
+        <v>0.2843459542589758</v>
       </c>
       <c r="D28">
-        <v>0.05597721073817014</v>
+        <v>-0.009596952309178307</v>
       </c>
       <c r="E28">
-        <v>0.001099298424886546</v>
+        <v>0.02394847452088843</v>
       </c>
       <c r="F28">
-        <v>0.05172959798911333</v>
+        <v>0.004101724300667432</v>
       </c>
       <c r="G28">
-        <v>0.001869132633566954</v>
+        <v>0.006909642161560287</v>
       </c>
       <c r="H28">
-        <v>0.05933426377990798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.0257840295522808</v>
+      </c>
+      <c r="I28">
+        <v>-0.01219264583051603</v>
+      </c>
+      <c r="J28">
+        <v>-0.02254821203885591</v>
+      </c>
+      <c r="K28">
+        <v>0.01813766514545924</v>
+      </c>
+      <c r="L28">
+        <v>0.01680049433228298</v>
+      </c>
+      <c r="M28">
+        <v>0.0141344390343379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05362358165569264</v>
+        <v>-0.04036815753618268</v>
       </c>
       <c r="C29">
-        <v>0.02248810127741427</v>
+        <v>-0.02862997769472984</v>
       </c>
       <c r="D29">
-        <v>0.01306863610823919</v>
+        <v>-0.00417727965385282</v>
       </c>
       <c r="E29">
-        <v>0.02943740503835384</v>
+        <v>0.02360739042462773</v>
       </c>
       <c r="F29">
-        <v>-0.003897648102454185</v>
+        <v>0.05965103254031752</v>
       </c>
       <c r="G29">
-        <v>0.007909848253238622</v>
+        <v>-0.01020467136060954</v>
       </c>
       <c r="H29">
-        <v>-0.009590789200966178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.008763445894921175</v>
+      </c>
+      <c r="I29">
+        <v>-0.004679571417856221</v>
+      </c>
+      <c r="J29">
+        <v>-0.006694701473311959</v>
+      </c>
+      <c r="K29">
+        <v>0.08546132429605031</v>
+      </c>
+      <c r="L29">
+        <v>-0.01771701264922716</v>
+      </c>
+      <c r="M29">
+        <v>-0.01620973506877679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1296810074467978</v>
+        <v>-0.1036713829069045</v>
       </c>
       <c r="C30">
-        <v>0.05420038729427997</v>
+        <v>-0.05899043959290396</v>
       </c>
       <c r="D30">
-        <v>0.05389990858004343</v>
+        <v>-0.004105224502945811</v>
       </c>
       <c r="E30">
-        <v>0.1296614615903672</v>
+        <v>0.03762357682517181</v>
       </c>
       <c r="F30">
-        <v>0.002995390178908172</v>
+        <v>0.2309265569863074</v>
       </c>
       <c r="G30">
-        <v>-0.1677699479657754</v>
+        <v>-0.05927754467954049</v>
       </c>
       <c r="H30">
-        <v>0.03420926541069571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2846204729411567</v>
+      </c>
+      <c r="I30">
+        <v>-0.07503288128472969</v>
+      </c>
+      <c r="J30">
+        <v>-0.07861658472153113</v>
+      </c>
+      <c r="K30">
+        <v>0.161999915816062</v>
+      </c>
+      <c r="L30">
+        <v>-0.02974579914102913</v>
+      </c>
+      <c r="M30">
+        <v>0.4196799443085303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05082026276747155</v>
+        <v>-0.03781533972462069</v>
       </c>
       <c r="C31">
-        <v>0.02615547847249778</v>
+        <v>-0.05001754763453439</v>
       </c>
       <c r="D31">
-        <v>-0.0080586095823077</v>
+        <v>0.004123778002822145</v>
       </c>
       <c r="E31">
-        <v>-0.001187522295075026</v>
+        <v>-0.008875592370048185</v>
       </c>
       <c r="F31">
-        <v>-0.008979990863504145</v>
+        <v>0.02598204767777992</v>
       </c>
       <c r="G31">
-        <v>0.03681141834195322</v>
+        <v>-0.01835435791691579</v>
       </c>
       <c r="H31">
-        <v>-0.008347521068496563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04295134944575204</v>
+      </c>
+      <c r="I31">
+        <v>-0.0002932440253983082</v>
+      </c>
+      <c r="J31">
+        <v>-0.003630804701971241</v>
+      </c>
+      <c r="K31">
+        <v>0.02586961700903467</v>
+      </c>
+      <c r="L31">
+        <v>-0.03100944486584904</v>
+      </c>
+      <c r="M31">
+        <v>0.002352611266433314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01946334229881504</v>
+        <v>-0.04502347733539117</v>
       </c>
       <c r="C32">
-        <v>-0.01820070262852138</v>
+        <v>0.003481082328813554</v>
       </c>
       <c r="D32">
-        <v>-0.01319902007345827</v>
+        <v>-0.01486584142443585</v>
       </c>
       <c r="E32">
-        <v>0.08496650462467695</v>
+        <v>-0.001180315731021394</v>
       </c>
       <c r="F32">
-        <v>-0.0817498703992416</v>
+        <v>0.08909395499526429</v>
       </c>
       <c r="G32">
-        <v>-0.02214145756900883</v>
+        <v>0.02200380260034972</v>
       </c>
       <c r="H32">
-        <v>0.0461303456751294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.045642387238454</v>
+      </c>
+      <c r="I32">
+        <v>0.06281930875050196</v>
+      </c>
+      <c r="J32">
+        <v>-0.03368005811494772</v>
+      </c>
+      <c r="K32">
+        <v>0.03661323595872278</v>
+      </c>
+      <c r="L32">
+        <v>-0.01030075143894989</v>
+      </c>
+      <c r="M32">
+        <v>0.1786208682644615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1030983237320617</v>
+        <v>-0.09986783546255047</v>
       </c>
       <c r="C33">
-        <v>0.04288570580597299</v>
+        <v>-0.0670829790779565</v>
       </c>
       <c r="D33">
-        <v>0.002927975701057834</v>
+        <v>-0.01321378243477225</v>
       </c>
       <c r="E33">
-        <v>0.01990112643280941</v>
+        <v>-0.01112288333469051</v>
       </c>
       <c r="F33">
-        <v>-0.05316612650651707</v>
+        <v>0.08018704449267378</v>
       </c>
       <c r="G33">
-        <v>-0.010978697749864</v>
+        <v>-0.02128394895781182</v>
       </c>
       <c r="H33">
-        <v>0.00524904851557726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.01167979235883968</v>
+      </c>
+      <c r="I33">
+        <v>0.009429752259357466</v>
+      </c>
+      <c r="J33">
+        <v>0.032830197042237</v>
+      </c>
+      <c r="K33">
+        <v>0.0519291919737371</v>
+      </c>
+      <c r="L33">
+        <v>-0.002121354634041829</v>
+      </c>
+      <c r="M33">
+        <v>-0.007529818558319266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05717901156511311</v>
+        <v>-0.06354077468665321</v>
       </c>
       <c r="C34">
-        <v>0.07772059349748417</v>
+        <v>-0.0660524633932095</v>
       </c>
       <c r="D34">
-        <v>0.01698683756543761</v>
+        <v>-0.02190345021134841</v>
       </c>
       <c r="E34">
-        <v>0.02175416132632532</v>
+        <v>0.01054673567687711</v>
       </c>
       <c r="F34">
-        <v>-0.03184182768519389</v>
+        <v>0.1050188216168873</v>
       </c>
       <c r="G34">
-        <v>-0.03033921720067436</v>
+        <v>0.01824885761376765</v>
       </c>
       <c r="H34">
-        <v>0.02820959212618258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.01513573358510968</v>
+      </c>
+      <c r="I34">
+        <v>0.06376809169424665</v>
+      </c>
+      <c r="J34">
+        <v>-0.05282757721432638</v>
+      </c>
+      <c r="K34">
+        <v>-0.01881185924768162</v>
+      </c>
+      <c r="L34">
+        <v>-0.0540809820739712</v>
+      </c>
+      <c r="M34">
+        <v>-0.1327504445353698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.0465607746923332</v>
+        <v>-0.02581644455846737</v>
       </c>
       <c r="C35">
-        <v>0.04659951933955208</v>
+        <v>-0.02477017763635337</v>
       </c>
       <c r="D35">
-        <v>0.006261367697560571</v>
+        <v>-0.0003503174569121907</v>
       </c>
       <c r="E35">
-        <v>0.01894302573687646</v>
+        <v>1.171691746732982e-07</v>
       </c>
       <c r="F35">
-        <v>-0.008228729852045102</v>
+        <v>0.03580221667806953</v>
       </c>
       <c r="G35">
-        <v>-0.01681083339416427</v>
+        <v>-0.003982091359451077</v>
       </c>
       <c r="H35">
-        <v>-0.002317909887876927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.02343672028386011</v>
+      </c>
+      <c r="I35">
+        <v>0.04318628599298829</v>
+      </c>
+      <c r="J35">
+        <v>-0.04510573518388004</v>
+      </c>
+      <c r="K35">
+        <v>0.04548954752753726</v>
+      </c>
+      <c r="L35">
+        <v>-0.03258653708177844</v>
+      </c>
+      <c r="M35">
+        <v>-0.008018070801940886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03623935287852809</v>
+        <v>-0.02818521198283973</v>
       </c>
       <c r="C36">
-        <v>0.02270879257537144</v>
+        <v>-0.02002365992638548</v>
       </c>
       <c r="D36">
-        <v>0.0259970588610018</v>
+        <v>0.01330418501514838</v>
       </c>
       <c r="E36">
-        <v>0.03993068934715694</v>
+        <v>0.01399879130077728</v>
       </c>
       <c r="F36">
-        <v>-0.03087222961209229</v>
+        <v>0.06556151624471722</v>
       </c>
       <c r="G36">
-        <v>-0.009175300093132352</v>
+        <v>0.004771369968284382</v>
       </c>
       <c r="H36">
-        <v>-0.02418589155934313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.003125797473475272</v>
+      </c>
+      <c r="I36">
+        <v>-0.01681238716371614</v>
+      </c>
+      <c r="J36">
+        <v>0.002174523840155198</v>
+      </c>
+      <c r="K36">
+        <v>0.05247316046417223</v>
+      </c>
+      <c r="L36">
+        <v>-0.01185076921347458</v>
+      </c>
+      <c r="M36">
+        <v>-0.05575067323956632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04829402025748091</v>
+        <v>-0.02808328317511705</v>
       </c>
       <c r="C38">
-        <v>0.03592942407872968</v>
+        <v>-0.04686152746149591</v>
       </c>
       <c r="D38">
-        <v>-0.01475967295751428</v>
+        <v>0.02429315495111156</v>
       </c>
       <c r="E38">
-        <v>0.04085267413599693</v>
+        <v>0.006654322034559621</v>
       </c>
       <c r="F38">
-        <v>-0.0462403375638368</v>
+        <v>-0.0447648029585446</v>
       </c>
       <c r="G38">
-        <v>-0.008404422911517441</v>
+        <v>-0.06040547430007764</v>
       </c>
       <c r="H38">
-        <v>0.04035614816055124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.02952079356595237</v>
+      </c>
+      <c r="I38">
+        <v>0.0183053095259383</v>
+      </c>
+      <c r="J38">
+        <v>0.008960490652509383</v>
+      </c>
+      <c r="K38">
+        <v>0.07239064275154744</v>
+      </c>
+      <c r="L38">
+        <v>0.1085187121483861</v>
+      </c>
+      <c r="M38">
+        <v>0.08247718654441902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.1013277736494892</v>
+        <v>-0.1047368858815125</v>
       </c>
       <c r="C39">
-        <v>0.09063164199341205</v>
+        <v>-0.09479138559815237</v>
       </c>
       <c r="D39">
-        <v>0.00634012666548253</v>
+        <v>-0.08476674763845601</v>
       </c>
       <c r="E39">
-        <v>0.0363872680731373</v>
+        <v>-0.02720083778297854</v>
       </c>
       <c r="F39">
-        <v>-0.0300830371380434</v>
+        <v>0.1811499502413933</v>
       </c>
       <c r="G39">
-        <v>-0.086462140803959</v>
+        <v>-0.06728158676728385</v>
       </c>
       <c r="H39">
-        <v>0.1049933766622203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1218973655042236</v>
+      </c>
+      <c r="I39">
+        <v>0.06969873752420412</v>
+      </c>
+      <c r="J39">
+        <v>-0.1162412514451551</v>
+      </c>
+      <c r="K39">
+        <v>-0.1105925451702329</v>
+      </c>
+      <c r="L39">
+        <v>-0.1040985565460689</v>
+      </c>
+      <c r="M39">
+        <v>0.02972992353001014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04130025072711428</v>
+        <v>-0.03121412173100935</v>
       </c>
       <c r="C40">
-        <v>0.03172465133495637</v>
+        <v>-0.05727092008182429</v>
       </c>
       <c r="D40">
-        <v>-0.05302757063030687</v>
+        <v>0.04529469170554164</v>
       </c>
       <c r="E40">
-        <v>0.11991239610041</v>
+        <v>0.0109598496816706</v>
       </c>
       <c r="F40">
-        <v>-0.07574634516238082</v>
+        <v>0.1082840312007222</v>
       </c>
       <c r="G40">
-        <v>-0.07931736606780578</v>
+        <v>0.07791229458114436</v>
       </c>
       <c r="H40">
-        <v>0.09018442386223004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.05611580481683382</v>
+      </c>
+      <c r="I40">
+        <v>0.04347193521152605</v>
+      </c>
+      <c r="J40">
+        <v>0.01110765577919213</v>
+      </c>
+      <c r="K40">
+        <v>0.0731803029954093</v>
+      </c>
+      <c r="L40">
+        <v>0.1293176607088788</v>
+      </c>
+      <c r="M40">
+        <v>0.06604704330904865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04597707325886079</v>
+        <v>-0.03907778752525931</v>
       </c>
       <c r="C41">
-        <v>0.04852663634082819</v>
+        <v>-0.03732784524189697</v>
       </c>
       <c r="D41">
-        <v>0.004857266871975092</v>
+        <v>-0.01428070300404989</v>
       </c>
       <c r="E41">
-        <v>0.001924214775639419</v>
+        <v>-0.002555126382134516</v>
       </c>
       <c r="F41">
-        <v>-0.0303217106133785</v>
+        <v>0.02122655281453601</v>
       </c>
       <c r="G41">
-        <v>-0.005360670462877323</v>
+        <v>-0.01745469222188646</v>
       </c>
       <c r="H41">
-        <v>0.0211725232349066</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.00477516349662769</v>
+      </c>
+      <c r="I41">
+        <v>0.03042765185093648</v>
+      </c>
+      <c r="J41">
+        <v>-0.0288684662030703</v>
+      </c>
+      <c r="K41">
+        <v>0.03517102738585216</v>
+      </c>
+      <c r="L41">
+        <v>0.00930919825511302</v>
+      </c>
+      <c r="M41">
+        <v>-0.03177044928012863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06016298125554591</v>
+        <v>-0.0499165512510707</v>
       </c>
       <c r="C43">
-        <v>0.03853451862528955</v>
+        <v>-0.04409027939122644</v>
       </c>
       <c r="D43">
-        <v>0.02670006938525672</v>
+        <v>0.0120507367455369</v>
       </c>
       <c r="E43">
-        <v>0.03110506744250045</v>
+        <v>0.01160296535045277</v>
       </c>
       <c r="F43">
-        <v>-0.01394443127237294</v>
+        <v>0.01558497151150847</v>
       </c>
       <c r="G43">
-        <v>0.01354287802280011</v>
+        <v>-0.04581559151435723</v>
       </c>
       <c r="H43">
-        <v>0.01935666719420006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.01221079969003551</v>
+      </c>
+      <c r="I43">
+        <v>0.003813915211485315</v>
+      </c>
+      <c r="J43">
+        <v>-0.04550122331606454</v>
+      </c>
+      <c r="K43">
+        <v>0.01983897937176528</v>
+      </c>
+      <c r="L43">
+        <v>-0.008253756524670216</v>
+      </c>
+      <c r="M43">
+        <v>-0.03902936079797131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.0468882587657727</v>
+        <v>-0.0838175177387324</v>
       </c>
       <c r="C44">
-        <v>0.01302177590647296</v>
+        <v>-0.05845781602150266</v>
       </c>
       <c r="D44">
-        <v>0.0755581620499074</v>
+        <v>0.07959738785626598</v>
       </c>
       <c r="E44">
-        <v>0.09633263286814804</v>
+        <v>0.1078989671355148</v>
       </c>
       <c r="F44">
-        <v>-0.0452566624717945</v>
+        <v>0.1684825844177752</v>
       </c>
       <c r="G44">
-        <v>-0.1101235147671799</v>
+        <v>0.01730437044895847</v>
       </c>
       <c r="H44">
-        <v>0.01119739908895164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.01563435018494181</v>
+      </c>
+      <c r="I44">
+        <v>0.06897768847151722</v>
+      </c>
+      <c r="J44">
+        <v>0.01479053115151153</v>
+      </c>
+      <c r="K44">
+        <v>-0.01779588286236307</v>
+      </c>
+      <c r="L44">
+        <v>0.01963276495929679</v>
+      </c>
+      <c r="M44">
+        <v>0.08711588209118691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02536157981696166</v>
+        <v>-0.03274854447327658</v>
       </c>
       <c r="C46">
-        <v>0.0506977084488448</v>
+        <v>-0.04031747928130612</v>
       </c>
       <c r="D46">
-        <v>0.01812119888782065</v>
+        <v>0.04043547514986115</v>
       </c>
       <c r="E46">
-        <v>0.04003907590787115</v>
+        <v>0.0409344326153607</v>
       </c>
       <c r="F46">
-        <v>-0.008203891613550205</v>
+        <v>0.03861117601790717</v>
       </c>
       <c r="G46">
-        <v>0.006422601741668726</v>
+        <v>0.01661268690739861</v>
       </c>
       <c r="H46">
-        <v>0.006075031358803331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.01006153698832437</v>
+      </c>
+      <c r="I46">
+        <v>0.03655339699560875</v>
+      </c>
+      <c r="J46">
+        <v>0.008921399271310037</v>
+      </c>
+      <c r="K46">
+        <v>0.1173980296182404</v>
+      </c>
+      <c r="L46">
+        <v>-0.03055698177673159</v>
+      </c>
+      <c r="M46">
+        <v>-0.02545054155158153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02447097488715705</v>
+        <v>-0.0410966257305995</v>
       </c>
       <c r="C47">
-        <v>0.004087198552582979</v>
+        <v>-0.02646733052126509</v>
       </c>
       <c r="D47">
-        <v>-0.007895709573819786</v>
+        <v>0.01823957501556164</v>
       </c>
       <c r="E47">
-        <v>0.0653827511203031</v>
+        <v>0.01558279972245262</v>
       </c>
       <c r="F47">
-        <v>-0.02021698562623978</v>
+        <v>0.03873828832010991</v>
       </c>
       <c r="G47">
-        <v>0.001687623443431739</v>
+        <v>-0.006872779151501669</v>
       </c>
       <c r="H47">
-        <v>-0.03881303887352035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.001467299195231724</v>
+      </c>
+      <c r="I47">
+        <v>-0.01823074439320137</v>
+      </c>
+      <c r="J47">
+        <v>0.01091585561278229</v>
+      </c>
+      <c r="K47">
+        <v>0.04992079499114709</v>
+      </c>
+      <c r="L47">
+        <v>0.007470387106647249</v>
+      </c>
+      <c r="M47">
+        <v>-0.06410606554456937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03429676857950428</v>
+        <v>-0.04193053148554871</v>
       </c>
       <c r="C48">
-        <v>0.02551461566786275</v>
+        <v>-0.02236700216344381</v>
       </c>
       <c r="D48">
-        <v>0.002720900510611766</v>
+        <v>0.01146181999486296</v>
       </c>
       <c r="E48">
-        <v>0.05362558728822224</v>
+        <v>0.001906821803128191</v>
       </c>
       <c r="F48">
-        <v>-0.02516539330535891</v>
+        <v>0.06903138710779164</v>
       </c>
       <c r="G48">
-        <v>0.02613251233993415</v>
+        <v>0.04332552851983597</v>
       </c>
       <c r="H48">
-        <v>0.003053526255338173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.01008445251856446</v>
+      </c>
+      <c r="I48">
+        <v>-0.006496109969418438</v>
+      </c>
+      <c r="J48">
+        <v>-0.01440910544228922</v>
+      </c>
+      <c r="K48">
+        <v>0.04795340553378803</v>
+      </c>
+      <c r="L48">
+        <v>-0.04454602321423821</v>
+      </c>
+      <c r="M48">
+        <v>-0.03957377437058254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2122681669245716</v>
+        <v>-0.2234827112259042</v>
       </c>
       <c r="C49">
-        <v>0.1219888335349432</v>
+        <v>-0.0799330664491001</v>
       </c>
       <c r="D49">
-        <v>0.06115961217238658</v>
+        <v>-0.04972125284711713</v>
       </c>
       <c r="E49">
-        <v>-0.05587567320262531</v>
+        <v>0.02718461851621548</v>
       </c>
       <c r="F49">
-        <v>0.1744940722451371</v>
+        <v>-0.2535853963185455</v>
       </c>
       <c r="G49">
-        <v>-0.03624266270723212</v>
+        <v>0.09664280933254092</v>
       </c>
       <c r="H49">
-        <v>0.06270215255958296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.1526454944354539</v>
+      </c>
+      <c r="I49">
+        <v>0.09512409894220848</v>
+      </c>
+      <c r="J49">
+        <v>0.07362790785562161</v>
+      </c>
+      <c r="K49">
+        <v>-0.1721042866478353</v>
+      </c>
+      <c r="L49">
+        <v>-0.02705052393006935</v>
+      </c>
+      <c r="M49">
+        <v>-0.112076873537677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05558694214819303</v>
+        <v>-0.04675754120950987</v>
       </c>
       <c r="C50">
-        <v>0.02754586634309879</v>
+        <v>-0.04052221677781623</v>
       </c>
       <c r="D50">
-        <v>-0.001758265788587115</v>
+        <v>0.0009736099559689684</v>
       </c>
       <c r="E50">
-        <v>0.02576704422433041</v>
+        <v>-0.01051313864176203</v>
       </c>
       <c r="F50">
-        <v>-0.04351717544607477</v>
+        <v>0.05280271716621619</v>
       </c>
       <c r="G50">
-        <v>0.04329748065869556</v>
+        <v>-0.03104696090016215</v>
       </c>
       <c r="H50">
-        <v>-0.04190772682230934</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.02679854686852159</v>
+      </c>
+      <c r="I50">
+        <v>-0.01408587739527756</v>
+      </c>
+      <c r="J50">
+        <v>0.0133801896047666</v>
+      </c>
+      <c r="K50">
+        <v>0.05603108586550222</v>
+      </c>
+      <c r="L50">
+        <v>-0.02374915958379417</v>
+      </c>
+      <c r="M50">
+        <v>0.01460383622726638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.03132395557226469</v>
+        <v>-0.02688368797510773</v>
       </c>
       <c r="C51">
-        <v>0.01379226243004254</v>
+        <v>-0.005720477831307614</v>
       </c>
       <c r="D51">
-        <v>-0.003474984047369966</v>
+        <v>-0.000737574539283929</v>
       </c>
       <c r="E51">
-        <v>0.002495712573938707</v>
+        <v>0.01710855604170132</v>
       </c>
       <c r="F51">
-        <v>-0.008477657552252819</v>
+        <v>-0.02231795586667503</v>
       </c>
       <c r="G51">
-        <v>-0.006563961196150997</v>
+        <v>-0.0106809879785266</v>
       </c>
       <c r="H51">
-        <v>0.02453468021039411</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.005472640935797219</v>
+      </c>
+      <c r="I51">
+        <v>0.01221264007254461</v>
+      </c>
+      <c r="J51">
+        <v>-0.01625682979038549</v>
+      </c>
+      <c r="K51">
+        <v>-0.07411216482287052</v>
+      </c>
+      <c r="L51">
+        <v>-0.03118622631551779</v>
+      </c>
+      <c r="M51">
+        <v>0.003037937538488064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.03584722939278998</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.01167820981072833</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01601941839685607</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.001950020385883217</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02530490156864502</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.04417249732686161</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01309862655561604</v>
+      </c>
+      <c r="I52">
+        <v>-0.001508203906153098</v>
+      </c>
+      <c r="J52">
+        <v>0.03065434404926568</v>
+      </c>
+      <c r="K52">
+        <v>-0.01623294836167419</v>
+      </c>
+      <c r="L52">
+        <v>-0.01792846902349696</v>
+      </c>
+      <c r="M52">
+        <v>0.0535962808468188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.171948856921559</v>
+        <v>-0.1606060910411542</v>
       </c>
       <c r="C53">
-        <v>0.001141310921182736</v>
+        <v>-0.04724909492825381</v>
       </c>
       <c r="D53">
-        <v>0.01350435025224903</v>
+        <v>-0.01413514777778822</v>
       </c>
       <c r="E53">
-        <v>-0.07810986918799977</v>
+        <v>-0.007211703647365554</v>
       </c>
       <c r="F53">
-        <v>-0.2412639574718068</v>
+        <v>-0.03878892934806429</v>
       </c>
       <c r="G53">
-        <v>0.04119090058443683</v>
+        <v>-0.2282580956962632</v>
       </c>
       <c r="H53">
-        <v>-0.07651441095248972</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1616214025406505</v>
+      </c>
+      <c r="I53">
+        <v>0.01681922617457576</v>
+      </c>
+      <c r="J53">
+        <v>0.1050536884263608</v>
+      </c>
+      <c r="K53">
+        <v>0.02168390799452767</v>
+      </c>
+      <c r="L53">
+        <v>0.01902391869922167</v>
+      </c>
+      <c r="M53">
+        <v>0.09382721425073351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04888300188478872</v>
+        <v>-0.05366968145157508</v>
       </c>
       <c r="C54">
-        <v>0.03599153033280585</v>
+        <v>-0.03980794343824955</v>
       </c>
       <c r="D54">
-        <v>0.03344281228400201</v>
+        <v>0.01673257292375347</v>
       </c>
       <c r="E54">
-        <v>0.05299478109567324</v>
+        <v>0.03071956090550328</v>
       </c>
       <c r="F54">
-        <v>-0.01920932696895536</v>
+        <v>0.1064439850538894</v>
       </c>
       <c r="G54">
-        <v>0.003363046561344575</v>
+        <v>0.05278358702741364</v>
       </c>
       <c r="H54">
-        <v>-0.0008766924855980379</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.03344071632565258</v>
+      </c>
+      <c r="I54">
+        <v>-0.01937585371405372</v>
+      </c>
+      <c r="J54">
+        <v>-0.04323356552401587</v>
+      </c>
+      <c r="K54">
+        <v>0.1341613914561691</v>
+      </c>
+      <c r="L54">
+        <v>-0.01240977703166686</v>
+      </c>
+      <c r="M54">
+        <v>-0.05411366715463659</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09273553468553877</v>
+        <v>-0.08494119989242563</v>
       </c>
       <c r="C55">
-        <v>0.005397687443411049</v>
+        <v>-0.03798657745021396</v>
       </c>
       <c r="D55">
-        <v>0.01797805938438055</v>
+        <v>-0.02899460130032795</v>
       </c>
       <c r="E55">
-        <v>-0.01476544124254214</v>
+        <v>0.008929713013547894</v>
       </c>
       <c r="F55">
-        <v>-0.2017102167319511</v>
+        <v>0.01761246643829081</v>
       </c>
       <c r="G55">
-        <v>0.04627797938118004</v>
+        <v>-0.126333860853628</v>
       </c>
       <c r="H55">
-        <v>-0.09053587566128578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1310550562231481</v>
+      </c>
+      <c r="I55">
+        <v>0.01634730908473984</v>
+      </c>
+      <c r="J55">
+        <v>0.05294316367945281</v>
+      </c>
+      <c r="K55">
+        <v>0.01349248088107496</v>
+      </c>
+      <c r="L55">
+        <v>0.002535873025518921</v>
+      </c>
+      <c r="M55">
+        <v>-0.01518280178525686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1647126688464806</v>
+        <v>-0.1514035281789791</v>
       </c>
       <c r="C56">
-        <v>0.008438408028689493</v>
+        <v>-0.06895534404568913</v>
       </c>
       <c r="D56">
-        <v>0.02879135113793387</v>
+        <v>-0.03342507595131543</v>
       </c>
       <c r="E56">
-        <v>-0.08118000733040601</v>
+        <v>0.01433600313149916</v>
       </c>
       <c r="F56">
-        <v>-0.2152686908733531</v>
+        <v>-0.01636102115643503</v>
       </c>
       <c r="G56">
-        <v>0.09065612433591694</v>
+        <v>-0.2097869988496956</v>
       </c>
       <c r="H56">
-        <v>-0.07365359483086231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1536994391713714</v>
+      </c>
+      <c r="I56">
+        <v>0.02088493561937193</v>
+      </c>
+      <c r="J56">
+        <v>0.07750117720994533</v>
+      </c>
+      <c r="K56">
+        <v>0.01623315253313138</v>
+      </c>
+      <c r="L56">
+        <v>0.06002741758492216</v>
+      </c>
+      <c r="M56">
+        <v>0.04179755187752457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02497015151520229</v>
+        <v>-0.0383312006330735</v>
       </c>
       <c r="C58">
-        <v>0.04859629097913951</v>
+        <v>-0.03404625861729557</v>
       </c>
       <c r="D58">
-        <v>-0.033731923388567</v>
+        <v>0.0824403229887317</v>
       </c>
       <c r="E58">
-        <v>0.3843662192573611</v>
+        <v>0.002037385311654736</v>
       </c>
       <c r="F58">
-        <v>0.3187065048661306</v>
+        <v>0.06429339056987979</v>
       </c>
       <c r="G58">
-        <v>0.02431295998097511</v>
+        <v>0.03871938570904886</v>
       </c>
       <c r="H58">
-        <v>-0.3142833957165954</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1403701048051604</v>
+      </c>
+      <c r="I58">
+        <v>-0.01216913291068627</v>
+      </c>
+      <c r="J58">
+        <v>-0.1422912881209548</v>
+      </c>
+      <c r="K58">
+        <v>-0.05581877665162668</v>
+      </c>
+      <c r="L58">
+        <v>-0.4529633605187711</v>
+      </c>
+      <c r="M58">
+        <v>0.01194497940447497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2185643419357871</v>
+        <v>-0.2259287465014362</v>
       </c>
       <c r="C59">
-        <v>-0.4018146164125913</v>
+        <v>0.2957267312440821</v>
       </c>
       <c r="D59">
-        <v>0.05660905329672464</v>
+        <v>-0.04296439909611348</v>
       </c>
       <c r="E59">
-        <v>-0.00348614354702804</v>
+        <v>0.008891059951666712</v>
       </c>
       <c r="F59">
-        <v>-0.05200630832274714</v>
+        <v>0.01564451372791051</v>
       </c>
       <c r="G59">
-        <v>-0.035794875357536</v>
+        <v>-0.03796727848075387</v>
       </c>
       <c r="H59">
-        <v>0.0606203935068582</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1076988147841813</v>
+      </c>
+      <c r="I59">
+        <v>0.02430639239162015</v>
+      </c>
+      <c r="J59">
+        <v>-0.03731754859986134</v>
+      </c>
+      <c r="K59">
+        <v>-0.1103827584701684</v>
+      </c>
+      <c r="L59">
+        <v>0.07070308647127967</v>
+      </c>
+      <c r="M59">
+        <v>0.04767677661631261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2566066607831482</v>
+        <v>-0.2399394308649485</v>
       </c>
       <c r="C60">
-        <v>0.0721229382518588</v>
+        <v>-0.1245355638853263</v>
       </c>
       <c r="D60">
-        <v>0.07201602661438206</v>
+        <v>-0.06140701683104727</v>
       </c>
       <c r="E60">
-        <v>-0.001729765475944377</v>
+        <v>0.04190084346041576</v>
       </c>
       <c r="F60">
-        <v>0.05186576543459612</v>
+        <v>-0.1175924060922461</v>
       </c>
       <c r="G60">
-        <v>0.02028870294713439</v>
+        <v>0.01446058515072081</v>
       </c>
       <c r="H60">
-        <v>-0.05847131375200746</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.07193081483633103</v>
+      </c>
+      <c r="I60">
+        <v>-0.128708713333458</v>
+      </c>
+      <c r="J60">
+        <v>0.1867698106027301</v>
+      </c>
+      <c r="K60">
+        <v>-0.1650106374558689</v>
+      </c>
+      <c r="L60">
+        <v>-0.0008292661782413092</v>
+      </c>
+      <c r="M60">
+        <v>0.04761584889569937</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08659263404388648</v>
+        <v>-0.1020354732010108</v>
       </c>
       <c r="C61">
-        <v>0.04995060320549911</v>
+        <v>-0.06670645731454973</v>
       </c>
       <c r="D61">
-        <v>0.009734671921067318</v>
+        <v>-0.04559435471018999</v>
       </c>
       <c r="E61">
-        <v>0.005933459524645623</v>
+        <v>0.007895058945539339</v>
       </c>
       <c r="F61">
-        <v>-0.02573137215746747</v>
+        <v>0.1501747193630604</v>
       </c>
       <c r="G61">
-        <v>-0.01754728302761348</v>
+        <v>-0.06359846830529874</v>
       </c>
       <c r="H61">
-        <v>0.06069296862181744</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.04592882660061337</v>
+      </c>
+      <c r="I61">
+        <v>0.06752484091649694</v>
+      </c>
+      <c r="J61">
+        <v>-0.07924300368764391</v>
+      </c>
+      <c r="K61">
+        <v>-0.01115811079358274</v>
+      </c>
+      <c r="L61">
+        <v>-0.05055227608088348</v>
+      </c>
+      <c r="M61">
+        <v>0.00477547002105663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1577897193879005</v>
+        <v>-0.1420527670621925</v>
       </c>
       <c r="C62">
-        <v>0.03652324904801647</v>
+        <v>-0.07031740048251317</v>
       </c>
       <c r="D62">
-        <v>-0.0146555576267721</v>
+        <v>-0.03106581666381785</v>
       </c>
       <c r="E62">
-        <v>-0.1437549138355255</v>
+        <v>-0.03254979949501268</v>
       </c>
       <c r="F62">
-        <v>-0.2175025971103051</v>
+        <v>-0.0347677679022297</v>
       </c>
       <c r="G62">
-        <v>0.02824200478778557</v>
+        <v>-0.1543703724622643</v>
       </c>
       <c r="H62">
-        <v>-0.02230078198327746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1583667278947514</v>
+      </c>
+      <c r="I62">
+        <v>0.03442704471778398</v>
+      </c>
+      <c r="J62">
+        <v>0.111510601802768</v>
+      </c>
+      <c r="K62">
+        <v>0.07114427997498504</v>
+      </c>
+      <c r="L62">
+        <v>0.07243507452908224</v>
+      </c>
+      <c r="M62">
+        <v>-0.02815836992235989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03978014181508457</v>
+        <v>-0.04674212172083107</v>
       </c>
       <c r="C63">
-        <v>0.03935652435251118</v>
+        <v>-0.03048518525015392</v>
       </c>
       <c r="D63">
-        <v>0.002911868791001581</v>
+        <v>-0.004217599047183621</v>
       </c>
       <c r="E63">
-        <v>0.00156508788997064</v>
+        <v>-0.01231442287378497</v>
       </c>
       <c r="F63">
-        <v>-0.02123324028957503</v>
+        <v>0.07183632933631064</v>
       </c>
       <c r="G63">
-        <v>-0.01166098519623837</v>
+        <v>0.01038417846370857</v>
       </c>
       <c r="H63">
-        <v>-0.04437071141781086</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.008559077415001672</v>
+      </c>
+      <c r="I63">
+        <v>0.009063818836789674</v>
+      </c>
+      <c r="J63">
+        <v>-0.0128068104346504</v>
+      </c>
+      <c r="K63">
+        <v>0.03847482247369985</v>
+      </c>
+      <c r="L63">
+        <v>-0.04505532239451</v>
+      </c>
+      <c r="M63">
+        <v>-0.03919120888863399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1075153025054259</v>
+        <v>-0.09870770349466788</v>
       </c>
       <c r="C64">
-        <v>0.02871707167583201</v>
+        <v>-0.04666299314120973</v>
       </c>
       <c r="D64">
-        <v>0.03602784008033767</v>
+        <v>0.006258615974830817</v>
       </c>
       <c r="E64">
-        <v>0.04370989869197335</v>
+        <v>0.03982002835354666</v>
       </c>
       <c r="F64">
-        <v>0.005053463513704365</v>
+        <v>0.07492682962238346</v>
       </c>
       <c r="G64">
-        <v>-0.05016332272953555</v>
+        <v>-0.000381328434518034</v>
       </c>
       <c r="H64">
-        <v>0.0503369001381413</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.09481941588173921</v>
+      </c>
+      <c r="I64">
+        <v>-0.01527840915173602</v>
+      </c>
+      <c r="J64">
+        <v>-0.02341207265003903</v>
+      </c>
+      <c r="K64">
+        <v>0.006286174647410553</v>
+      </c>
+      <c r="L64">
+        <v>0.002658982393412241</v>
+      </c>
+      <c r="M64">
+        <v>0.01923458932807409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1280719436620875</v>
+        <v>-0.1250318754728047</v>
       </c>
       <c r="C65">
-        <v>0.04934908143467947</v>
+        <v>-0.04979501322794781</v>
       </c>
       <c r="D65">
-        <v>0.02267961162273145</v>
+        <v>-0.01469954760659912</v>
       </c>
       <c r="E65">
-        <v>0.08666463119559255</v>
+        <v>-0.03029329742370415</v>
       </c>
       <c r="F65">
-        <v>0.1620735192692829</v>
+        <v>-0.01671504290114831</v>
       </c>
       <c r="G65">
-        <v>0.009221018987369383</v>
+        <v>0.1307293259449908</v>
       </c>
       <c r="H65">
-        <v>-0.6167920958914077</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.02624799992656773</v>
+      </c>
+      <c r="I65">
+        <v>-0.5753506415495304</v>
+      </c>
+      <c r="J65">
+        <v>0.3343460111808594</v>
+      </c>
+      <c r="K65">
+        <v>0.1691424817656849</v>
+      </c>
+      <c r="L65">
+        <v>-0.2049990794849166</v>
+      </c>
+      <c r="M65">
+        <v>0.06069891398620242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1595469469494562</v>
+        <v>-0.134346971325311</v>
       </c>
       <c r="C66">
-        <v>0.116185191124308</v>
+        <v>-0.1310891590434177</v>
       </c>
       <c r="D66">
-        <v>0.003982279245917289</v>
+        <v>-0.09869051136531269</v>
       </c>
       <c r="E66">
-        <v>-0.002900264583204604</v>
+        <v>-0.04517161543905397</v>
       </c>
       <c r="F66">
-        <v>-0.0657654158539545</v>
+        <v>0.1914914090721454</v>
       </c>
       <c r="G66">
-        <v>-0.1656347041619777</v>
+        <v>-0.07882057121203474</v>
       </c>
       <c r="H66">
-        <v>0.2212220689038061</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1312091036306819</v>
+      </c>
+      <c r="I66">
+        <v>0.1137010671634965</v>
+      </c>
+      <c r="J66">
+        <v>-0.08381648172416813</v>
+      </c>
+      <c r="K66">
+        <v>-0.1474794099309865</v>
+      </c>
+      <c r="L66">
+        <v>-0.02705745629211137</v>
+      </c>
+      <c r="M66">
+        <v>0.1174760215271758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08702845843982406</v>
+        <v>-0.07515252520713375</v>
       </c>
       <c r="C67">
-        <v>0.05167280243489596</v>
+        <v>-0.055920257060742</v>
       </c>
       <c r="D67">
-        <v>0.008973549361682669</v>
+        <v>0.0213275738040294</v>
       </c>
       <c r="E67">
-        <v>0.0085202228573793</v>
+        <v>0.025843279207234</v>
       </c>
       <c r="F67">
-        <v>-0.02697605193849937</v>
+        <v>-0.05329648380182854</v>
       </c>
       <c r="G67">
-        <v>-0.006637999834020328</v>
+        <v>-0.08490699512531187</v>
       </c>
       <c r="H67">
-        <v>0.05768349051511354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.0229632484942533</v>
+      </c>
+      <c r="I67">
+        <v>0.008258965837958956</v>
+      </c>
+      <c r="J67">
+        <v>-0.01818849333987466</v>
+      </c>
+      <c r="K67">
+        <v>0.001156477481341337</v>
+      </c>
+      <c r="L67">
+        <v>0.1599071252631136</v>
+      </c>
+      <c r="M67">
+        <v>0.04917357939217702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.08959450603012263</v>
+        <v>-0.124052765316591</v>
       </c>
       <c r="C68">
-        <v>-0.2841817521436515</v>
+        <v>0.270949621671899</v>
       </c>
       <c r="D68">
-        <v>0.01259514747784201</v>
+        <v>-0.009375432331382428</v>
       </c>
       <c r="E68">
-        <v>0.02335184606284231</v>
+        <v>-0.0003053205266859487</v>
       </c>
       <c r="F68">
-        <v>-0.02274982759624529</v>
+        <v>0.03951711789882571</v>
       </c>
       <c r="G68">
-        <v>0.03843618198835965</v>
+        <v>-0.0273367506324489</v>
       </c>
       <c r="H68">
-        <v>-0.02920116398684902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.004845021014529476</v>
+      </c>
+      <c r="I68">
+        <v>-0.03350858589838004</v>
+      </c>
+      <c r="J68">
+        <v>0.02804466668048363</v>
+      </c>
+      <c r="K68">
+        <v>0.032943702598918</v>
+      </c>
+      <c r="L68">
+        <v>-0.04730143033159438</v>
+      </c>
+      <c r="M68">
+        <v>0.001892973876898408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03275174006983259</v>
+        <v>-0.04394869887559487</v>
       </c>
       <c r="C69">
-        <v>0.02595869527258679</v>
+        <v>-0.01983340560455873</v>
       </c>
       <c r="D69">
-        <v>0.007895331538880926</v>
+        <v>0.005506212282187849</v>
       </c>
       <c r="E69">
-        <v>0.006058620809889252</v>
+        <v>0.002466296638908217</v>
       </c>
       <c r="F69">
-        <v>-0.02963668739123186</v>
+        <v>0.02094939237722197</v>
       </c>
       <c r="G69">
-        <v>-0.0299063906941452</v>
+        <v>-0.02366575490491608</v>
       </c>
       <c r="H69">
-        <v>-0.003845053138166716</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.004515442004225731</v>
+      </c>
+      <c r="I69">
+        <v>0.0007279822022296633</v>
+      </c>
+      <c r="J69">
+        <v>-0.009308585267481165</v>
+      </c>
+      <c r="K69">
+        <v>0.01804184209923119</v>
+      </c>
+      <c r="L69">
+        <v>0.01294996538664409</v>
+      </c>
+      <c r="M69">
+        <v>-0.06853664850544444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05623677216020114</v>
+        <v>-0.05295610217088063</v>
       </c>
       <c r="C70">
-        <v>0.009819982558360545</v>
+        <v>-0.02623473319232199</v>
       </c>
       <c r="D70">
-        <v>0.04783840207932079</v>
+        <v>-0.0273419696441368</v>
       </c>
       <c r="E70">
-        <v>-0.005821872882999533</v>
+        <v>0.03746799993082117</v>
       </c>
       <c r="F70">
-        <v>0.1002569819800056</v>
+        <v>0.007493542411716922</v>
       </c>
       <c r="G70">
-        <v>0.03789740428653432</v>
+        <v>0.05897343627886937</v>
       </c>
       <c r="H70">
-        <v>0.04477594948260883</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.04104973607273175</v>
+      </c>
+      <c r="I70">
+        <v>-0.02365957741133928</v>
+      </c>
+      <c r="J70">
+        <v>-0.1206751100189794</v>
+      </c>
+      <c r="K70">
+        <v>0.3154863929694217</v>
+      </c>
+      <c r="L70">
+        <v>0.1885638824376652</v>
+      </c>
+      <c r="M70">
+        <v>0.0240447218625786</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.09563867661537441</v>
+        <v>-0.138548094410901</v>
       </c>
       <c r="C71">
-        <v>-0.2791438174272826</v>
+        <v>0.2800706752014914</v>
       </c>
       <c r="D71">
-        <v>0.04561384667476382</v>
+        <v>-0.01368845142978103</v>
       </c>
       <c r="E71">
-        <v>0.01295191580087836</v>
+        <v>0.01698217139963932</v>
       </c>
       <c r="F71">
-        <v>0.00549646824332273</v>
+        <v>0.04017775776159185</v>
       </c>
       <c r="G71">
-        <v>0.01362522361147817</v>
+        <v>-0.02961210936283711</v>
       </c>
       <c r="H71">
-        <v>0.0003026576582616359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02980436016063958</v>
+      </c>
+      <c r="I71">
+        <v>-0.01191230885669846</v>
+      </c>
+      <c r="J71">
+        <v>0.01365783741767655</v>
+      </c>
+      <c r="K71">
+        <v>0.01054134603346933</v>
+      </c>
+      <c r="L71">
+        <v>-0.02501113748528958</v>
+      </c>
+      <c r="M71">
+        <v>-0.003155502296818367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1759480041923834</v>
+        <v>-0.1460945085673316</v>
       </c>
       <c r="C72">
-        <v>0.01349565632633802</v>
+        <v>-0.02546497911484871</v>
       </c>
       <c r="D72">
-        <v>-0.2539247869081008</v>
+        <v>0.002651576691307786</v>
       </c>
       <c r="E72">
-        <v>-0.05060969275687059</v>
+        <v>-0.1853327014585193</v>
       </c>
       <c r="F72">
-        <v>-0.05709346426534803</v>
+        <v>0.03484339316490264</v>
       </c>
       <c r="G72">
-        <v>-0.06487004128766767</v>
+        <v>-0.03013391959945925</v>
       </c>
       <c r="H72">
-        <v>-0.08419432623558049</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.03902629623010644</v>
+      </c>
+      <c r="I72">
+        <v>-0.08710098729939093</v>
+      </c>
+      <c r="J72">
+        <v>0.1061692620212283</v>
+      </c>
+      <c r="K72">
+        <v>-0.025862470770243</v>
+      </c>
+      <c r="L72">
+        <v>0.03150697435806701</v>
+      </c>
+      <c r="M72">
+        <v>0.02086454745412834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2955993323736715</v>
+        <v>-0.2420644624794455</v>
       </c>
       <c r="C73">
-        <v>0.1799701062043292</v>
+        <v>-0.1525020650152811</v>
       </c>
       <c r="D73">
-        <v>0.09860765824229287</v>
+        <v>-0.1375738948485866</v>
       </c>
       <c r="E73">
-        <v>-0.02564079664434542</v>
+        <v>0.09057575039061302</v>
       </c>
       <c r="F73">
-        <v>0.1972211767142436</v>
+        <v>-0.4324079300129161</v>
       </c>
       <c r="G73">
-        <v>-0.01522403991467423</v>
+        <v>0.009602137709407214</v>
       </c>
       <c r="H73">
-        <v>-0.1490017348353258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.3290002566887276</v>
+      </c>
+      <c r="I73">
+        <v>0.05937824069033507</v>
+      </c>
+      <c r="J73">
+        <v>0.03955233522508184</v>
+      </c>
+      <c r="K73">
+        <v>-0.3419074955371968</v>
+      </c>
+      <c r="L73">
+        <v>-0.1237959646009401</v>
+      </c>
+      <c r="M73">
+        <v>0.1265153630290113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09551670755201265</v>
+        <v>-0.09897653003549753</v>
       </c>
       <c r="C74">
-        <v>0.0349702342178648</v>
+        <v>-0.0720015927455135</v>
       </c>
       <c r="D74">
-        <v>0.003410672639083358</v>
+        <v>-0.01114205495604443</v>
       </c>
       <c r="E74">
-        <v>-0.0176187033165321</v>
+        <v>-0.01313271552028173</v>
       </c>
       <c r="F74">
-        <v>-0.119179609829062</v>
+        <v>-0.01395791683011033</v>
       </c>
       <c r="G74">
-        <v>0.05066213667033767</v>
+        <v>-0.1540654364847761</v>
       </c>
       <c r="H74">
-        <v>-0.08004465152255426</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.03643308871852582</v>
+      </c>
+      <c r="I74">
+        <v>0.0202233115577828</v>
+      </c>
+      <c r="J74">
+        <v>0.05405411592146862</v>
+      </c>
+      <c r="K74">
+        <v>0.008401291426488228</v>
+      </c>
+      <c r="L74">
+        <v>-0.007722019714980904</v>
+      </c>
+      <c r="M74">
+        <v>0.007939751844087631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.08939707120558102</v>
+        <v>-0.09551312330958071</v>
       </c>
       <c r="C75">
-        <v>0.01690344245531849</v>
+        <v>-0.05177713752796592</v>
       </c>
       <c r="D75">
-        <v>0.006570769187084067</v>
+        <v>-0.007911725336135305</v>
       </c>
       <c r="E75">
-        <v>-0.04546459862588213</v>
+        <v>-0.0106618319256919</v>
       </c>
       <c r="F75">
-        <v>-0.1036227014116405</v>
+        <v>-0.01732699835009861</v>
       </c>
       <c r="G75">
-        <v>0.06044917473811773</v>
+        <v>-0.09064655168374412</v>
       </c>
       <c r="H75">
-        <v>-0.02408807977104105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1106476838024598</v>
+      </c>
+      <c r="I75">
+        <v>-0.002830189921181445</v>
+      </c>
+      <c r="J75">
+        <v>0.02776248997698752</v>
+      </c>
+      <c r="K75">
+        <v>0.005611896533697888</v>
+      </c>
+      <c r="L75">
+        <v>0.02163523369490385</v>
+      </c>
+      <c r="M75">
+        <v>-0.06001884007414698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1342326158821746</v>
+        <v>-0.080571500211277</v>
       </c>
       <c r="C76">
-        <v>0.02378245103587383</v>
+        <v>-0.05981280656826477</v>
       </c>
       <c r="D76">
-        <v>0.008862708401760221</v>
+        <v>-0.004031438812169156</v>
       </c>
       <c r="E76">
-        <v>-0.02304176237447379</v>
+        <v>0.01285616569264831</v>
       </c>
       <c r="F76">
-        <v>-0.2192206490445084</v>
+        <v>-0.04581109743193744</v>
       </c>
       <c r="G76">
-        <v>0.08448510107442991</v>
+        <v>-0.1630792239347622</v>
       </c>
       <c r="H76">
-        <v>-0.09404215489437581</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1428107943720172</v>
+      </c>
+      <c r="I76">
+        <v>0.03035418717937226</v>
+      </c>
+      <c r="J76">
+        <v>0.02164582380929986</v>
+      </c>
+      <c r="K76">
+        <v>0.02627086785614829</v>
+      </c>
+      <c r="L76">
+        <v>0.009440384586483894</v>
+      </c>
+      <c r="M76">
+        <v>0.03985170327235396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07626084196016167</v>
+        <v>-0.07025364470440373</v>
       </c>
       <c r="C77">
-        <v>0.02404420609535268</v>
+        <v>-0.02598760323810956</v>
       </c>
       <c r="D77">
-        <v>0.02600517392427643</v>
+        <v>-0.02281020250483961</v>
       </c>
       <c r="E77">
-        <v>0.1600702208119754</v>
+        <v>0.05119918787578012</v>
       </c>
       <c r="F77">
-        <v>0.03143775811716718</v>
+        <v>0.2582138583643498</v>
       </c>
       <c r="G77">
-        <v>-0.6848585614977691</v>
+        <v>0.1280040852847486</v>
       </c>
       <c r="H77">
-        <v>0.1336451491266136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1674001450815561</v>
+      </c>
+      <c r="I77">
+        <v>-0.2630229616083471</v>
+      </c>
+      <c r="J77">
+        <v>-0.04051012848104062</v>
+      </c>
+      <c r="K77">
+        <v>-0.3234232816093801</v>
+      </c>
+      <c r="L77">
+        <v>0.6296597853611201</v>
+      </c>
+      <c r="M77">
+        <v>0.05015833718602673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1545340703409349</v>
+        <v>-0.1578373468756193</v>
       </c>
       <c r="C78">
-        <v>0.08458713548009697</v>
+        <v>-0.1132142140247629</v>
       </c>
       <c r="D78">
-        <v>0.02602680301302756</v>
+        <v>0.1897722668659966</v>
       </c>
       <c r="E78">
-        <v>0.1995845830234426</v>
+        <v>0.1254852569369183</v>
       </c>
       <c r="F78">
-        <v>0.0008963053288454533</v>
+        <v>0.07085061301591083</v>
       </c>
       <c r="G78">
-        <v>-0.02643898873042736</v>
+        <v>0.4059317507860759</v>
       </c>
       <c r="H78">
-        <v>0.07380589495489917</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.6219836811003879</v>
+      </c>
+      <c r="I78">
+        <v>-0.08819884941386887</v>
+      </c>
+      <c r="J78">
+        <v>-0.237243776061025</v>
+      </c>
+      <c r="K78">
+        <v>-0.3423085761782356</v>
+      </c>
+      <c r="L78">
+        <v>-0.1032272430296322</v>
+      </c>
+      <c r="M78">
+        <v>0.1808813740011526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1397497566987633</v>
+        <v>-0.1350427553477725</v>
       </c>
       <c r="C79">
-        <v>0.04251049812487602</v>
+        <v>-0.07660803373554903</v>
       </c>
       <c r="D79">
-        <v>0.01157186466264152</v>
+        <v>-0.003068797367625299</v>
       </c>
       <c r="E79">
-        <v>-0.05697112504581792</v>
+        <v>0.001368199741949441</v>
       </c>
       <c r="F79">
-        <v>-0.1566380519235905</v>
+        <v>0.01256345339268269</v>
       </c>
       <c r="G79">
-        <v>0.05171210021796879</v>
+        <v>-0.1496160651032042</v>
       </c>
       <c r="H79">
-        <v>-0.023412973807181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.104990109762526</v>
+      </c>
+      <c r="I79">
+        <v>0.02561036364418086</v>
+      </c>
+      <c r="J79">
+        <v>0.08250776668847747</v>
+      </c>
+      <c r="K79">
+        <v>0.02633242057666482</v>
+      </c>
+      <c r="L79">
+        <v>0.03640828668528245</v>
+      </c>
+      <c r="M79">
+        <v>-0.03418814796759714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02850369563188137</v>
+        <v>-0.05600943861901487</v>
       </c>
       <c r="C80">
-        <v>0.005918455093779777</v>
+        <v>-0.02281456166980904</v>
       </c>
       <c r="D80">
-        <v>0.007316269767583226</v>
+        <v>-0.07159774879947768</v>
       </c>
       <c r="E80">
-        <v>-0.04031871682650726</v>
+        <v>0.01669404809409396</v>
       </c>
       <c r="F80">
-        <v>0.000794500085798796</v>
+        <v>0.03158899026459464</v>
       </c>
       <c r="G80">
-        <v>-0.02194868559835647</v>
+        <v>0.02727423495584603</v>
       </c>
       <c r="H80">
-        <v>-0.06374638887019558</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.006683736024911696</v>
+      </c>
+      <c r="I80">
+        <v>-0.02497619468691423</v>
+      </c>
+      <c r="J80">
+        <v>-0.03351865194054727</v>
+      </c>
+      <c r="K80">
+        <v>0.1294315428196291</v>
+      </c>
+      <c r="L80">
+        <v>-0.1323406868251759</v>
+      </c>
+      <c r="M80">
+        <v>-0.006292135390156442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1042342664785136</v>
+        <v>-0.1219577938614159</v>
       </c>
       <c r="C81">
-        <v>0.03191393481128024</v>
+        <v>-0.06864870375778374</v>
       </c>
       <c r="D81">
-        <v>0.0173058739565447</v>
+        <v>-0.001968763185088923</v>
       </c>
       <c r="E81">
-        <v>-0.0679184330158198</v>
+        <v>0.002080424816169588</v>
       </c>
       <c r="F81">
-        <v>-0.1253343665026944</v>
+        <v>0.02281429898819543</v>
       </c>
       <c r="G81">
-        <v>0.03900911810505676</v>
+        <v>-0.1123443105131729</v>
       </c>
       <c r="H81">
-        <v>-0.001832097471299439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.09617034460198566</v>
+      </c>
+      <c r="I81">
+        <v>0.04031194115396754</v>
+      </c>
+      <c r="J81">
+        <v>0.05907830452342615</v>
+      </c>
+      <c r="K81">
+        <v>0.01413272242179226</v>
+      </c>
+      <c r="L81">
+        <v>0.02588825726330218</v>
+      </c>
+      <c r="M81">
+        <v>-0.1145572307915492</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1133296071885102</v>
+        <v>-0.123874599030261</v>
       </c>
       <c r="C82">
-        <v>0.02398073368142697</v>
+        <v>-0.05247930833205999</v>
       </c>
       <c r="D82">
-        <v>0.05881684666530879</v>
+        <v>-0.0269938582401993</v>
       </c>
       <c r="E82">
-        <v>-0.08040840149280483</v>
+        <v>8.984237020176665e-05</v>
       </c>
       <c r="F82">
-        <v>-0.2330739116074912</v>
+        <v>0.001183366068911098</v>
       </c>
       <c r="G82">
-        <v>0.06664804676902769</v>
+        <v>-0.216016755177426</v>
       </c>
       <c r="H82">
-        <v>-0.01905602727272393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1204173041755389</v>
+      </c>
+      <c r="I82">
+        <v>0.1118258697594931</v>
+      </c>
+      <c r="J82">
+        <v>0.01822221869819886</v>
+      </c>
+      <c r="K82">
+        <v>0.07337766642353441</v>
+      </c>
+      <c r="L82">
+        <v>0.04724890435902948</v>
+      </c>
+      <c r="M82">
+        <v>-0.04928282401207984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.07038347378234854</v>
+        <v>-0.07130832323284918</v>
       </c>
       <c r="C83">
-        <v>0.05369614207010707</v>
+        <v>-0.06735150601009003</v>
       </c>
       <c r="D83">
-        <v>0.03228838480892974</v>
+        <v>-0.02795554952399839</v>
       </c>
       <c r="E83">
-        <v>0.00217897217473004</v>
+        <v>0.01247778380566983</v>
       </c>
       <c r="F83">
-        <v>0.05756351346255043</v>
+        <v>0.03280619035022778</v>
       </c>
       <c r="G83">
-        <v>-0.02665599372606386</v>
+        <v>-0.05689527890145401</v>
       </c>
       <c r="H83">
-        <v>0.08705068036624425</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.09775929133790265</v>
+      </c>
+      <c r="I83">
+        <v>-0.02103870262142871</v>
+      </c>
+      <c r="J83">
+        <v>-0.1030096671484638</v>
+      </c>
+      <c r="K83">
+        <v>0.1059580857947282</v>
+      </c>
+      <c r="L83">
+        <v>0.03663995719144882</v>
+      </c>
+      <c r="M83">
+        <v>0.06008752066691699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05188453039185958</v>
+        <v>-0.05562321741038507</v>
       </c>
       <c r="C84">
-        <v>0.0447774681561754</v>
+        <v>0.01662153164103647</v>
       </c>
       <c r="D84">
-        <v>-0.06018361705019447</v>
+        <v>0.0006171564058592613</v>
       </c>
       <c r="E84">
-        <v>0.008216107744798182</v>
+        <v>-0.02203281646637937</v>
       </c>
       <c r="F84">
-        <v>-0.02504449690935613</v>
+        <v>0.01334434320698666</v>
       </c>
       <c r="G84">
-        <v>0.1520391327035416</v>
+        <v>0.1927300756656818</v>
       </c>
       <c r="H84">
-        <v>0.009179309495666517</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.02869792613814022</v>
+      </c>
+      <c r="I84">
+        <v>0.2608078336318936</v>
+      </c>
+      <c r="J84">
+        <v>0.006432141265745127</v>
+      </c>
+      <c r="K84">
+        <v>0.09343071863007615</v>
+      </c>
+      <c r="L84">
+        <v>-0.1655822307024548</v>
+      </c>
+      <c r="M84">
+        <v>0.3977187928024467</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09107449023323108</v>
+        <v>-0.1109581116861955</v>
       </c>
       <c r="C85">
-        <v>0.03858907180046708</v>
+        <v>-0.0525440056085729</v>
       </c>
       <c r="D85">
-        <v>0.05315913205019442</v>
+        <v>-0.01259010370871002</v>
       </c>
       <c r="E85">
-        <v>-0.0351359096070263</v>
+        <v>0.03100587256076451</v>
       </c>
       <c r="F85">
-        <v>-0.1866215199699683</v>
+        <v>0.01447583673448533</v>
       </c>
       <c r="G85">
-        <v>0.02109522149079123</v>
+        <v>-0.1577240433085951</v>
       </c>
       <c r="H85">
-        <v>-0.06411576948000898</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1065209928169764</v>
+      </c>
+      <c r="I85">
+        <v>0.02026448021647035</v>
+      </c>
+      <c r="J85">
+        <v>0.09723864969807207</v>
+      </c>
+      <c r="K85">
+        <v>0.01400743909361048</v>
+      </c>
+      <c r="L85">
+        <v>0.04467623322650591</v>
+      </c>
+      <c r="M85">
+        <v>-0.05233744110552335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04451331891784174</v>
+        <v>-0.07458472864070856</v>
       </c>
       <c r="C86">
-        <v>0.04012471096233629</v>
+        <v>-0.03359470811776925</v>
       </c>
       <c r="D86">
-        <v>0.03101104724834014</v>
+        <v>0.01965872517812538</v>
       </c>
       <c r="E86">
-        <v>0.03254807331138458</v>
+        <v>0.119587793649415</v>
       </c>
       <c r="F86">
-        <v>0.001793359773409343</v>
+        <v>0.02719239964859304</v>
       </c>
       <c r="G86">
-        <v>-0.07221962430172724</v>
+        <v>0.4246744159903866</v>
       </c>
       <c r="H86">
-        <v>-0.09354455786779887</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.02238477638640964</v>
+      </c>
+      <c r="I86">
+        <v>0.4549401933454726</v>
+      </c>
+      <c r="J86">
+        <v>0.572189583969172</v>
+      </c>
+      <c r="K86">
+        <v>0.1571102760939374</v>
+      </c>
+      <c r="L86">
+        <v>0.1395511183868614</v>
+      </c>
+      <c r="M86">
+        <v>0.09066809099790829</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08954131713676741</v>
+        <v>-0.1089658465376792</v>
       </c>
       <c r="C87">
-        <v>0.0563170626204466</v>
+        <v>-0.07452398191067645</v>
       </c>
       <c r="D87">
-        <v>-0.002489507010004281</v>
+        <v>0.02829501582813563</v>
       </c>
       <c r="E87">
-        <v>0.0611878034402643</v>
+        <v>0.03363152428433676</v>
       </c>
       <c r="F87">
-        <v>-0.006674962640939825</v>
+        <v>0.09735461990539722</v>
       </c>
       <c r="G87">
-        <v>-0.1207479890349401</v>
+        <v>0.0787057762988493</v>
       </c>
       <c r="H87">
-        <v>0.07357348130423663</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.09365585819626854</v>
+      </c>
+      <c r="I87">
+        <v>-0.04791819813543129</v>
+      </c>
+      <c r="J87">
+        <v>-0.03005024996990293</v>
+      </c>
+      <c r="K87">
+        <v>0.006578720668827551</v>
+      </c>
+      <c r="L87">
+        <v>0.1708619207849919</v>
+      </c>
+      <c r="M87">
+        <v>-0.09738112259771084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05671316374144517</v>
+        <v>-0.05829808803464971</v>
       </c>
       <c r="C88">
-        <v>0.04377683059717967</v>
+        <v>-0.05366923754819849</v>
       </c>
       <c r="D88">
-        <v>0.02308464479272584</v>
+        <v>-0.03088076057702272</v>
       </c>
       <c r="E88">
-        <v>0.008114704538339033</v>
+        <v>0.003986458615463414</v>
       </c>
       <c r="F88">
-        <v>0.006415673698688957</v>
+        <v>0.0420105379786003</v>
       </c>
       <c r="G88">
-        <v>-0.03234279684792141</v>
+        <v>-0.03082508474323183</v>
       </c>
       <c r="H88">
-        <v>0.03106202349671029</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.03886646374397532</v>
+      </c>
+      <c r="I88">
+        <v>0.01861631495446554</v>
+      </c>
+      <c r="J88">
+        <v>-0.02205758329879612</v>
+      </c>
+      <c r="K88">
+        <v>0.02152723500633737</v>
+      </c>
+      <c r="L88">
+        <v>-0.05592997893125053</v>
+      </c>
+      <c r="M88">
+        <v>-0.06168191298128215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1550063344656175</v>
+        <v>-0.2076207743986341</v>
       </c>
       <c r="C89">
-        <v>-0.338603891862636</v>
+        <v>0.3621422776420364</v>
       </c>
       <c r="D89">
-        <v>0.0757716478624671</v>
+        <v>0.04464590457082489</v>
       </c>
       <c r="E89">
-        <v>0.09258593393333189</v>
+        <v>0.08134114844288771</v>
       </c>
       <c r="F89">
-        <v>0.04535381446795214</v>
+        <v>0.009698095323731134</v>
       </c>
       <c r="G89">
-        <v>-0.03469487216914888</v>
+        <v>0.02619703401287921</v>
       </c>
       <c r="H89">
-        <v>-0.000218591554232282</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02421931727905535</v>
+      </c>
+      <c r="I89">
+        <v>0.0359605781403901</v>
+      </c>
+      <c r="J89">
+        <v>-0.06759199537548286</v>
+      </c>
+      <c r="K89">
+        <v>-0.00772662271989034</v>
+      </c>
+      <c r="L89">
+        <v>-0.02493474671201111</v>
+      </c>
+      <c r="M89">
+        <v>-0.08227132721660917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1182918763376622</v>
+        <v>-0.1526255045652382</v>
       </c>
       <c r="C90">
-        <v>-0.2800368349404559</v>
+        <v>0.2689406027743959</v>
       </c>
       <c r="D90">
-        <v>0.01519737637480327</v>
+        <v>-0.008593202385180502</v>
       </c>
       <c r="E90">
-        <v>0.06483970602554348</v>
+        <v>0.01000280903562591</v>
       </c>
       <c r="F90">
-        <v>0.02987894031021669</v>
+        <v>0.04142111212313383</v>
       </c>
       <c r="G90">
-        <v>-0.1030581719311155</v>
+        <v>0.001816467938186953</v>
       </c>
       <c r="H90">
-        <v>0.03708077506361235</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.078003736818423</v>
+      </c>
+      <c r="I90">
+        <v>0.003002696633885839</v>
+      </c>
+      <c r="J90">
+        <v>0.005266910016918537</v>
+      </c>
+      <c r="K90">
+        <v>-0.02885443552863359</v>
+      </c>
+      <c r="L90">
+        <v>-0.0194830329882669</v>
+      </c>
+      <c r="M90">
+        <v>0.05991537666539272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08042970906379998</v>
+        <v>-0.07985410126420456</v>
       </c>
       <c r="C91">
-        <v>0.02072153013316605</v>
+        <v>-0.05426441679630082</v>
       </c>
       <c r="D91">
-        <v>0.01367229844171297</v>
+        <v>0.002296134698206996</v>
       </c>
       <c r="E91">
-        <v>0.003430212046765644</v>
+        <v>0.009756055137002052</v>
       </c>
       <c r="F91">
-        <v>-0.09575872121527597</v>
+        <v>-0.003590110051988905</v>
       </c>
       <c r="G91">
-        <v>0.07551951052989977</v>
+        <v>-0.08969189240322537</v>
       </c>
       <c r="H91">
-        <v>-0.02757028660156787</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.0657542732938499</v>
+      </c>
+      <c r="I91">
+        <v>0.0303693412024813</v>
+      </c>
+      <c r="J91">
+        <v>0.02868644338087155</v>
+      </c>
+      <c r="K91">
+        <v>-0.002307338695341934</v>
+      </c>
+      <c r="L91">
+        <v>-0.009087184892904108</v>
+      </c>
+      <c r="M91">
+        <v>0.01128100293191443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1278782704992708</v>
+        <v>-0.1708795009549925</v>
       </c>
       <c r="C92">
-        <v>-0.3161629567966204</v>
+        <v>0.3130772572552192</v>
       </c>
       <c r="D92">
-        <v>0.05697613218042297</v>
+        <v>0.03334268732891942</v>
       </c>
       <c r="E92">
-        <v>0.0485759254769095</v>
+        <v>0.04816493240736026</v>
       </c>
       <c r="F92">
-        <v>0.04150556459898933</v>
+        <v>0.04222464850049629</v>
       </c>
       <c r="G92">
-        <v>0.09570135911410754</v>
+        <v>-0.0193179106280316</v>
       </c>
       <c r="H92">
-        <v>-0.01356152793881993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.02759458215130823</v>
+      </c>
+      <c r="I92">
+        <v>0.02512552445226289</v>
+      </c>
+      <c r="J92">
+        <v>-0.05158478843165851</v>
+      </c>
+      <c r="K92">
+        <v>0.01030307508020221</v>
+      </c>
+      <c r="L92">
+        <v>-0.05553293547111943</v>
+      </c>
+      <c r="M92">
+        <v>-0.06534278476936765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1255499161410141</v>
+        <v>-0.1621630195727897</v>
       </c>
       <c r="C93">
-        <v>-0.2637967048282918</v>
+        <v>0.2865296067045082</v>
       </c>
       <c r="D93">
-        <v>0.03579194159580815</v>
+        <v>-0.0315143504036131</v>
       </c>
       <c r="E93">
-        <v>0.0237266483612564</v>
+        <v>0.007267195960294686</v>
       </c>
       <c r="F93">
-        <v>0.03255983196216997</v>
+        <v>0.01460737337993389</v>
       </c>
       <c r="G93">
-        <v>-0.02098780610185283</v>
+        <v>0.0125279949455699</v>
       </c>
       <c r="H93">
-        <v>0.01250644390814765</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03743962678805739</v>
+      </c>
+      <c r="I93">
+        <v>0.004216804250359839</v>
+      </c>
+      <c r="J93">
+        <v>0.01777944394245319</v>
+      </c>
+      <c r="K93">
+        <v>0.03467211610027274</v>
+      </c>
+      <c r="L93">
+        <v>-0.003608609765710024</v>
+      </c>
+      <c r="M93">
+        <v>0.02528775475009454</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09175849657709112</v>
+        <v>-0.112450049479389</v>
       </c>
       <c r="C94">
-        <v>0.05434434592292764</v>
+        <v>-0.07115516188115201</v>
       </c>
       <c r="D94">
-        <v>0.01058536667786139</v>
+        <v>0.0161271883875259</v>
       </c>
       <c r="E94">
-        <v>-0.007237269429371604</v>
+        <v>0.01614823821606659</v>
       </c>
       <c r="F94">
-        <v>-0.1518475973142221</v>
+        <v>-0.01969843763841844</v>
       </c>
       <c r="G94">
-        <v>0.09799300823659844</v>
+        <v>-0.1290699770825546</v>
       </c>
       <c r="H94">
-        <v>-0.06674927936487346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.08893621060390303</v>
+      </c>
+      <c r="I94">
+        <v>0.01279680028114448</v>
+      </c>
+      <c r="J94">
+        <v>0.02946052410786999</v>
+      </c>
+      <c r="K94">
+        <v>-0.001055821254400448</v>
+      </c>
+      <c r="L94">
+        <v>-0.04029827994875783</v>
+      </c>
+      <c r="M94">
+        <v>-0.006024504739404941</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09990233832636676</v>
+        <v>-0.1141594138669061</v>
       </c>
       <c r="C95">
-        <v>0.06723082557003923</v>
+        <v>-0.07337438208089973</v>
       </c>
       <c r="D95">
-        <v>0.06530627040692394</v>
+        <v>0.024036972366007</v>
       </c>
       <c r="E95">
-        <v>0.04183441749283159</v>
+        <v>0.07116679387344321</v>
       </c>
       <c r="F95">
-        <v>0.06210044088226805</v>
+        <v>0.04936643603169528</v>
       </c>
       <c r="G95">
-        <v>-0.01194287773392008</v>
+        <v>0.2497785202516836</v>
       </c>
       <c r="H95">
-        <v>0.0168797217364109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.09508429422278027</v>
+      </c>
+      <c r="I95">
+        <v>0.01958642521843069</v>
+      </c>
+      <c r="J95">
+        <v>0.02559323093577881</v>
+      </c>
+      <c r="K95">
+        <v>0.04612058477450113</v>
+      </c>
+      <c r="L95">
+        <v>-0.05904165491481472</v>
+      </c>
+      <c r="M95">
+        <v>-0.5390824075829027</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.000831297128666486</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0001687943127900176</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.000746900197122486</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0008748994677529427</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0003318538205905865</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.002340184817229095</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0002578547832771514</v>
+      </c>
+      <c r="I96">
+        <v>-0.0009740249533750883</v>
+      </c>
+      <c r="J96">
+        <v>0.003663212903130773</v>
+      </c>
+      <c r="K96">
+        <v>-0.0009807101321705719</v>
+      </c>
+      <c r="L96">
+        <v>-0.001759830000291511</v>
+      </c>
+      <c r="M96">
+        <v>0.006063536968120397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2283969276081039</v>
+        <v>-0.161068987032205</v>
       </c>
       <c r="C97">
-        <v>-0.04631158353541308</v>
+        <v>-0.00880826262345271</v>
       </c>
       <c r="D97">
-        <v>-0.8903282536924946</v>
+        <v>0.09554468235406112</v>
       </c>
       <c r="E97">
-        <v>-0.1117481207824102</v>
+        <v>-0.9241978137079506</v>
       </c>
       <c r="F97">
-        <v>0.1145322450504571</v>
+        <v>0.02507652482002626</v>
       </c>
       <c r="G97">
-        <v>-0.05018456143359232</v>
+        <v>0.1444477938387553</v>
       </c>
       <c r="H97">
-        <v>0.01877775840684128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.003945596905462467</v>
+      </c>
+      <c r="I97">
+        <v>0.07532175917399712</v>
+      </c>
+      <c r="J97">
+        <v>-0.01226401672384425</v>
+      </c>
+      <c r="K97">
+        <v>-0.02571266150495596</v>
+      </c>
+      <c r="L97">
+        <v>0.03582072938169966</v>
+      </c>
+      <c r="M97">
+        <v>-0.01848687327367566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2956855980928838</v>
+        <v>-0.255371142742166</v>
       </c>
       <c r="C98">
-        <v>0.1102697568018891</v>
+        <v>-0.1075391056365326</v>
       </c>
       <c r="D98">
-        <v>0.1307767866072875</v>
+        <v>0.01139790346117506</v>
       </c>
       <c r="E98">
-        <v>-0.2543415693212631</v>
+        <v>0.02000846486901882</v>
       </c>
       <c r="F98">
-        <v>0.4863128187056446</v>
+        <v>-0.4735934781442575</v>
       </c>
       <c r="G98">
-        <v>0.3560252083099745</v>
+        <v>0.1923610644542118</v>
       </c>
       <c r="H98">
-        <v>0.3655715341718054</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.01451105284886405</v>
+      </c>
+      <c r="I98">
+        <v>-0.01662662530382065</v>
+      </c>
+      <c r="J98">
+        <v>-0.4771289266031782</v>
+      </c>
+      <c r="K98">
+        <v>0.3722349671971489</v>
+      </c>
+      <c r="L98">
+        <v>0.1933261656361262</v>
+      </c>
+      <c r="M98">
+        <v>0.02033771693110644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06163831225759598</v>
+        <v>-0.0667848091968148</v>
       </c>
       <c r="C99">
-        <v>0.05152904276020893</v>
+        <v>-0.05371100654780809</v>
       </c>
       <c r="D99">
-        <v>0.03200252476118785</v>
+        <v>0.005423780910968038</v>
       </c>
       <c r="E99">
-        <v>-0.01470412572950624</v>
+        <v>0.03358867159619222</v>
       </c>
       <c r="F99">
-        <v>0.02231692184163728</v>
+        <v>-0.01695567262854286</v>
       </c>
       <c r="G99">
-        <v>0.008396406255336664</v>
+        <v>-0.02213961590584653</v>
       </c>
       <c r="H99">
-        <v>0.09069305202537463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.007349342912089264</v>
+      </c>
+      <c r="I99">
+        <v>0.01580624970012408</v>
+      </c>
+      <c r="J99">
+        <v>-0.03235166457320091</v>
+      </c>
+      <c r="K99">
+        <v>-0.02918352887587566</v>
+      </c>
+      <c r="L99">
+        <v>0.05571740769711848</v>
+      </c>
+      <c r="M99">
+        <v>-0.04979167943119964</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0004589885549527765</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.004302511826438357</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.001086816008048232</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.00295249324686715</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.001365654401255256</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.0009026312849722836</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.003696336414831397</v>
+      </c>
+      <c r="I100">
+        <v>-0.003949066167969205</v>
+      </c>
+      <c r="J100">
+        <v>-0.01237921057455438</v>
+      </c>
+      <c r="K100">
+        <v>0.007447974756988254</v>
+      </c>
+      <c r="L100">
+        <v>0.005278926333418279</v>
+      </c>
+      <c r="M100">
+        <v>0.00434939409078781</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05394244382285593</v>
+        <v>-0.04005167295927961</v>
       </c>
       <c r="C101">
-        <v>0.02180587509018522</v>
+        <v>-0.02858812331060847</v>
       </c>
       <c r="D101">
-        <v>0.01334137122503934</v>
+        <v>-0.005111034413134208</v>
       </c>
       <c r="E101">
-        <v>0.02821732778499451</v>
+        <v>0.02399845471666995</v>
       </c>
       <c r="F101">
-        <v>-0.003111154037959397</v>
+        <v>0.05781635787444282</v>
       </c>
       <c r="G101">
-        <v>0.007509241284226384</v>
+        <v>-0.0110793096014006</v>
       </c>
       <c r="H101">
-        <v>-0.009205362363291237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01099549740224038</v>
+      </c>
+      <c r="I101">
+        <v>-0.002765167908126864</v>
+      </c>
+      <c r="J101">
+        <v>-0.008473721170065531</v>
+      </c>
+      <c r="K101">
+        <v>0.08169747313156565</v>
+      </c>
+      <c r="L101">
+        <v>-0.01830660515873051</v>
+      </c>
+      <c r="M101">
+        <v>-0.01666788649526509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
